--- a/BackTest/2019-10-24 BackTest FNB.xlsx
+++ b/BackTest/2019-10-24 BackTest FNB.xlsx
@@ -2551,20 +2551,14 @@
         <v>12.63833333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,20 +2586,14 @@
         <v>12.63166666666666</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>12</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2633,20 +2621,14 @@
         <v>12.61666666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>12</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2685,7 +2667,7 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -2762,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
@@ -2803,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
@@ -2844,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
@@ -2885,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
@@ -2926,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
@@ -2967,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
@@ -3002,14 +2984,12 @@
         <v>12.48666666666666</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3043,14 +3023,12 @@
         <v>12.475</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3084,14 +3062,12 @@
         <v>12.46333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3125,14 +3101,12 @@
         <v>12.44833333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3166,14 +3140,12 @@
         <v>12.43666666666666</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3207,14 +3179,12 @@
         <v>12.42333333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3248,14 +3218,12 @@
         <v>12.41333333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3289,14 +3257,12 @@
         <v>12.405</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3330,14 +3296,12 @@
         <v>12.39666666666666</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3761,14 +3725,12 @@
         <v>12.26666666666666</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>12</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3802,14 +3764,12 @@
         <v>12.24999999999999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3843,14 +3803,12 @@
         <v>12.23499999999999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3884,14 +3842,12 @@
         <v>12.22499999999999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>12</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -3925,14 +3881,12 @@
         <v>12.21</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -3966,14 +3920,12 @@
         <v>12.19833333333333</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>12</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -4007,14 +3959,12 @@
         <v>12.18999999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4048,14 +3998,12 @@
         <v>12.17999999999999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4089,14 +4037,12 @@
         <v>12.17833333333333</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>12</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4130,14 +4076,12 @@
         <v>12.17333333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4171,14 +4115,12 @@
         <v>12.16499999999999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4212,14 +4154,12 @@
         <v>12.16333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4253,14 +4193,12 @@
         <v>12.16</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4294,14 +4232,12 @@
         <v>12.15833333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4335,14 +4271,12 @@
         <v>12.15666666666667</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4376,14 +4310,12 @@
         <v>12.15166666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -4417,14 +4349,12 @@
         <v>12.14833333333334</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -4458,14 +4388,12 @@
         <v>12.155</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4499,14 +4427,12 @@
         <v>12.16</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4540,14 +4466,12 @@
         <v>12.16666666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4581,14 +4505,12 @@
         <v>12.16666666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4622,14 +4544,12 @@
         <v>12.17833333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4744,18 +4664,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4787,11 +4705,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4826,11 +4740,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4865,11 +4775,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4904,11 +4810,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4943,11 +4845,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4982,11 +4880,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5021,11 +4915,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5060,11 +4950,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5099,11 +4985,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5138,11 +5020,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5177,11 +5055,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5216,11 +5090,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5255,11 +5125,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5294,11 +5160,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5333,11 +5195,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5372,11 +5230,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5411,11 +5265,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5450,11 +5300,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5489,11 +5335,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5528,11 +5370,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5567,11 +5405,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5606,11 +5440,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5645,11 +5475,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5684,11 +5510,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5723,11 +5545,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5762,11 +5580,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5801,11 +5615,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5840,11 +5650,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5879,11 +5685,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5918,11 +5720,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5957,11 +5755,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5996,11 +5790,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6035,11 +5825,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6074,11 +5860,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6113,11 +5895,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6152,11 +5930,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6191,11 +5965,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6230,11 +6000,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6269,11 +6035,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6308,11 +6070,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6347,11 +6105,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6386,11 +6140,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6425,11 +6175,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6464,11 +6210,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6503,11 +6245,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6542,11 +6280,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6581,11 +6315,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6620,11 +6350,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6659,11 +6385,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6698,11 +6420,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6737,11 +6455,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6776,11 +6490,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6815,11 +6525,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6854,11 +6560,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6893,11 +6595,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6932,11 +6630,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6971,11 +6665,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7010,11 +6700,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7049,11 +6735,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7088,11 +6770,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7127,11 +6805,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7166,11 +6840,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7205,11 +6875,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7244,11 +6910,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7283,11 +6945,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7322,11 +6980,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7361,11 +7015,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7400,11 +7050,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7439,11 +7085,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7478,11 +7120,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7517,11 +7155,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7556,11 +7190,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7595,11 +7225,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7634,11 +7260,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7673,11 +7295,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7712,11 +7330,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7751,11 +7365,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7790,11 +7400,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7829,11 +7435,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7868,11 +7470,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7907,11 +7505,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7946,11 +7540,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7985,11 +7575,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8024,11 +7610,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8063,11 +7645,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8102,11 +7680,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8141,11 +7715,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8180,11 +7750,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8219,11 +7785,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8258,11 +7820,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8297,11 +7855,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8336,11 +7890,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8375,11 +7925,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8414,11 +7960,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8453,11 +7995,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8492,11 +8030,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8531,11 +8065,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8570,11 +8100,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8609,11 +8135,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8648,11 +8170,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8687,11 +8205,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8726,11 +8240,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8765,11 +8275,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8804,11 +8310,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8843,11 +8345,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8882,11 +8380,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8921,11 +8415,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8960,11 +8450,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8999,11 +8485,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9038,11 +8520,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9077,11 +8555,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9116,11 +8590,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9155,11 +8625,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9194,11 +8660,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9233,11 +8695,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9272,11 +8730,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9311,11 +8765,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9350,11 +8800,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9389,11 +8835,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9428,11 +8870,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9467,11 +8905,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9506,11 +8940,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9545,11 +8975,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9584,11 +9010,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9623,11 +9045,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9662,11 +9080,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9701,11 +9115,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9740,11 +9150,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9779,11 +9185,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9818,11 +9220,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9857,11 +9255,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9896,11 +9290,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9935,11 +9325,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9974,11 +9360,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10013,11 +9395,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10052,11 +9430,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10091,11 +9465,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10130,11 +9500,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10169,11 +9535,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10208,11 +9570,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10247,11 +9605,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10286,11 +9640,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10325,11 +9675,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10364,11 +9710,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10403,11 +9745,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10442,11 +9780,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10481,11 +9815,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10520,11 +9850,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10559,11 +9885,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10598,11 +9920,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10637,11 +9955,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10676,11 +9990,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10715,11 +10025,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10754,11 +10060,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10793,11 +10095,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10832,11 +10130,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10871,11 +10165,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10910,11 +10200,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10949,11 +10235,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10988,11 +10270,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11027,11 +10305,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11066,11 +10340,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11105,11 +10375,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11144,11 +10410,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11183,11 +10445,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11222,11 +10480,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11261,11 +10515,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11300,11 +10550,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11339,11 +10585,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11378,11 +10620,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11417,11 +10655,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11456,11 +10690,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11495,11 +10725,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11534,11 +10760,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11573,11 +10795,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11612,11 +10830,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11651,11 +10865,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11690,11 +10900,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11722,20 +10928,14 @@
         <v>12.41833333333334</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>12</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11763,20 +10963,14 @@
         <v>12.40333333333334</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>12</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11804,20 +10998,14 @@
         <v>12.39000000000001</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11845,20 +11033,14 @@
         <v>12.37666666666667</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11886,20 +11068,14 @@
         <v>12.36500000000001</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11927,20 +11103,14 @@
         <v>12.35500000000001</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11968,20 +11138,14 @@
         <v>12.34833333333334</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12009,20 +11173,14 @@
         <v>12.345</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12050,20 +11208,14 @@
         <v>12.34166666666667</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12098,11 +11250,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12137,11 +11285,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12176,11 +11320,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12215,11 +11355,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12254,11 +11390,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12293,11 +11425,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12332,11 +11460,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12371,11 +11495,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12410,11 +11530,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12449,11 +11565,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12488,11 +11600,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12527,11 +11635,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12566,11 +11670,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12605,11 +11705,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12644,11 +11740,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12683,11 +11775,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12722,11 +11810,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12761,11 +11845,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12800,11 +11880,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12839,11 +11915,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12878,11 +11950,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12917,11 +11985,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12956,11 +12020,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12995,11 +12055,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13034,11 +12090,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13073,11 +12125,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13112,11 +12160,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13151,11 +12195,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13190,11 +12230,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13229,11 +12265,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13268,11 +12300,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13307,11 +12335,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13346,11 +12370,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13385,11 +12405,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13424,11 +12440,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13463,11 +12475,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13502,11 +12510,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13541,11 +12545,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13580,11 +12580,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13619,11 +12615,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13658,11 +12650,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13697,11 +12685,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13736,11 +12720,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13775,11 +12755,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13814,11 +12790,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13853,11 +12825,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13892,11 +12860,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13931,11 +12895,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13970,11 +12930,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -14009,11 +12965,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -14048,11 +13000,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -14087,11 +13035,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -14126,11 +13070,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14165,11 +13105,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14204,11 +13140,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14243,11 +13175,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14282,11 +13210,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14321,11 +13245,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14360,11 +13280,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14399,11 +13315,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14438,11 +13350,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14477,11 +13385,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14516,11 +13420,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14555,11 +13455,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14594,11 +13490,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14633,11 +13525,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14672,11 +13560,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14711,11 +13595,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14750,11 +13630,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14789,11 +13665,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14828,11 +13700,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14867,11 +13735,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14906,11 +13770,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14945,11 +13805,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14984,11 +13840,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -15023,11 +13875,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -15062,11 +13910,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -15101,11 +13945,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -15140,11 +13980,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -15179,11 +14015,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -15218,11 +14050,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -15257,11 +14085,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15296,11 +14120,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15335,11 +14155,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15374,11 +14190,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15413,11 +14225,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15452,11 +14260,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15491,11 +14295,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15530,11 +14330,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15569,11 +14365,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15608,11 +14400,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15647,11 +14435,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15686,11 +14470,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15725,11 +14505,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15764,11 +14540,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15803,11 +14575,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15842,11 +14610,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15881,11 +14645,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15920,11 +14680,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15959,11 +14715,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15998,11 +14750,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -16037,11 +14785,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -16076,11 +14820,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -16115,11 +14855,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -16154,11 +14890,7 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -16193,11 +14925,7 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -16232,11 +14960,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -16271,11 +14995,7 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -16310,11 +15030,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -16349,11 +15065,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16388,11 +15100,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16427,11 +15135,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16466,11 +15170,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16505,11 +15205,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16544,11 +15240,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16583,11 +15275,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16622,11 +15310,7 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16661,11 +15345,7 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16700,11 +15380,7 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16739,11 +15415,7 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16778,11 +15450,7 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16817,11 +15485,7 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16856,11 +15520,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16895,11 +15555,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16934,11 +15590,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16973,11 +15625,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -17012,11 +15660,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -17051,11 +15695,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -17090,11 +15730,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -17129,11 +15765,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -17168,11 +15800,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -17207,11 +15835,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -17246,11 +15870,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -17285,11 +15905,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -17324,11 +15940,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -17363,11 +15975,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -17402,11 +16010,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -17441,11 +16045,7 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -17480,11 +16080,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -17519,11 +16115,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17558,11 +16150,7 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17597,11 +16185,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17636,11 +16220,7 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17675,11 +16255,7 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17714,11 +16290,7 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17753,11 +16325,7 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17792,11 +16360,7 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17831,11 +16395,7 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17870,11 +16430,7 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17909,11 +16465,7 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17948,11 +16500,7 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17987,11 +16535,7 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -18026,11 +16570,7 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -18065,11 +16605,7 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -18104,11 +16640,7 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -18143,11 +16675,7 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -18182,11 +16710,7 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -18221,11 +16745,7 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -18260,11 +16780,7 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -18299,11 +16815,7 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -18338,11 +16850,7 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -18377,11 +16885,7 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -18416,11 +16920,7 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -18455,11 +16955,7 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -18494,11 +16990,7 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18533,11 +17025,7 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18572,11 +17060,7 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18611,11 +17095,7 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L471" t="inlineStr"/>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18650,11 +17130,7 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L472" t="inlineStr"/>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18689,11 +17165,7 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L473" t="inlineStr"/>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18728,11 +17200,7 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L474" t="inlineStr"/>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18767,11 +17235,7 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18806,11 +17270,7 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18845,11 +17305,7 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L477" t="inlineStr"/>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18884,11 +17340,7 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18923,11 +17375,7 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L479" t="inlineStr"/>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18962,11 +17410,7 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L480" t="inlineStr"/>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -19001,11 +17445,7 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -19040,11 +17480,7 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -19079,11 +17515,7 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L483" t="inlineStr"/>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -19118,11 +17550,7 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L484" t="inlineStr"/>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -19157,11 +17585,7 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L485" t="inlineStr"/>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -19196,11 +17620,7 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L486" t="inlineStr"/>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -19235,11 +17655,7 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -19274,11 +17690,7 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -19313,11 +17725,7 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -19352,11 +17760,7 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -19391,11 +17795,7 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -19430,11 +17830,7 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L492" t="inlineStr"/>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -19469,11 +17865,7 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L493" t="inlineStr"/>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -19508,11 +17900,7 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -19547,11 +17935,7 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L495" t="inlineStr"/>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -19586,11 +17970,7 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L496" t="inlineStr"/>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -19625,11 +18005,7 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -19664,11 +18040,7 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L498" t="inlineStr"/>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -19703,11 +18075,7 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L499" t="inlineStr"/>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19742,11 +18110,7 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L500" t="inlineStr"/>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19781,11 +18145,7 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19820,11 +18180,7 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L502" t="inlineStr"/>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19859,11 +18215,7 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L503" t="inlineStr"/>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19898,11 +18250,7 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L504" t="inlineStr"/>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19937,11 +18285,7 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L505" t="inlineStr"/>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19976,11 +18320,7 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -20015,11 +18355,7 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L507" t="inlineStr"/>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -20054,11 +18390,7 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L508" t="inlineStr"/>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -20093,11 +18425,7 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -20132,11 +18460,7 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -20171,11 +18495,7 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -20210,11 +18530,7 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -20249,11 +18565,7 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L513" t="inlineStr"/>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -20288,11 +18600,7 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L514" t="inlineStr"/>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -20327,11 +18635,7 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -20366,11 +18670,7 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -20405,11 +18705,7 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -20444,11 +18740,7 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -20483,11 +18775,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -20522,11 +18810,7 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -20561,11 +18845,7 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -20600,11 +18880,7 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -20639,11 +18915,7 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -20678,11 +18950,7 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -20717,11 +18985,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20756,11 +19020,7 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20795,11 +19055,7 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20834,11 +19090,7 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20873,11 +19125,7 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20912,11 +19160,7 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20951,11 +19195,7 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20990,11 +19230,7 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -21029,11 +19265,7 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -21068,11 +19300,7 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L534" t="inlineStr"/>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -21107,11 +19335,7 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -21146,11 +19370,7 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -21185,11 +19405,7 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -21224,11 +19440,7 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -21263,11 +19475,7 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -21302,11 +19510,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -21341,11 +19545,7 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -21380,11 +19580,7 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -21419,11 +19615,7 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -21458,11 +19650,7 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -21497,11 +19685,7 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -21536,11 +19720,7 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -21575,11 +19755,7 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -21614,11 +19790,7 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -21653,11 +19825,7 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -21692,11 +19860,7 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -21731,11 +19895,7 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -21770,11 +19930,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -21809,11 +19965,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -21848,11 +20000,7 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -21887,11 +20035,7 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21926,11 +20070,7 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21965,11 +20105,7 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -22004,11 +20140,7 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L558" t="inlineStr"/>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -22043,11 +20175,7 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L559" t="inlineStr"/>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -22082,11 +20210,7 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L560" t="inlineStr"/>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -22121,11 +20245,7 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L561" t="inlineStr"/>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -22160,11 +20280,7 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L562" t="inlineStr"/>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -22199,11 +20315,7 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L563" t="inlineStr"/>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -22238,11 +20350,7 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L564" t="inlineStr"/>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -22277,11 +20385,7 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L565" t="inlineStr"/>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -22316,11 +20420,7 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L566" t="inlineStr"/>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -22355,11 +20455,7 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L567" t="inlineStr"/>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -22394,11 +20490,7 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -22433,11 +20525,7 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L569" t="inlineStr"/>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -22472,11 +20560,7 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L570" t="inlineStr"/>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -22511,11 +20595,7 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -22550,11 +20630,7 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L572" t="inlineStr"/>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -22589,11 +20665,7 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L573" t="inlineStr"/>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -22628,11 +20700,7 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L574" t="inlineStr"/>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -22667,11 +20735,7 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L575" t="inlineStr"/>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -22706,11 +20770,7 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L576" t="inlineStr"/>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -22745,11 +20805,7 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L577" t="inlineStr"/>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -22784,11 +20840,7 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L578" t="inlineStr"/>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -22823,11 +20875,7 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L579" t="inlineStr"/>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -22862,11 +20910,7 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L580" t="inlineStr"/>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -22901,11 +20945,7 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L581" t="inlineStr"/>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -22940,11 +20980,7 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L582" t="inlineStr"/>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -22979,11 +21015,7 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L583" t="inlineStr"/>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -23018,11 +21050,7 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L584" t="inlineStr"/>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -23057,11 +21085,7 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L585" t="inlineStr"/>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -23096,11 +21120,7 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L586" t="inlineStr"/>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -23135,11 +21155,7 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L587" t="inlineStr"/>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -23174,11 +21190,7 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L588" t="inlineStr"/>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -23213,11 +21225,7 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L589" t="inlineStr"/>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -23252,11 +21260,7 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L590" t="inlineStr"/>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -23291,11 +21295,7 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L591" t="inlineStr"/>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -23330,11 +21330,7 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L592" t="inlineStr"/>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -23369,11 +21365,7 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L593" t="inlineStr"/>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -23408,11 +21400,7 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L594" t="inlineStr"/>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -23447,11 +21435,7 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L595" t="inlineStr"/>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -23486,11 +21470,7 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L596" t="inlineStr"/>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -23525,11 +21505,7 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L597" t="inlineStr"/>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -23564,11 +21540,7 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L598" t="inlineStr"/>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -23603,11 +21575,7 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L599" t="inlineStr"/>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -23642,11 +21610,7 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L600" t="inlineStr"/>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -23681,11 +21645,7 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L601" t="inlineStr"/>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -23720,11 +21680,7 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L602" t="inlineStr"/>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -23759,11 +21715,7 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L603" t="inlineStr"/>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -23798,11 +21750,7 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L604" t="inlineStr"/>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -23837,11 +21785,7 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L605" t="inlineStr"/>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -23876,11 +21820,7 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L606" t="inlineStr"/>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -23915,11 +21855,7 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L607" t="inlineStr"/>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -23954,11 +21890,7 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L608" t="inlineStr"/>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -23993,11 +21925,7 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L609" t="inlineStr"/>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -24032,11 +21960,7 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L610" t="inlineStr"/>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -24071,11 +21995,7 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L611" t="inlineStr"/>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -24110,11 +22030,7 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L612" t="inlineStr"/>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -24149,11 +22065,7 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L613" t="inlineStr"/>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -24188,11 +22100,7 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L614" t="inlineStr"/>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -24227,11 +22135,7 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L615" t="inlineStr"/>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -24266,11 +22170,7 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L616" t="inlineStr"/>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -24305,11 +22205,7 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L617" t="inlineStr"/>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -24344,11 +22240,7 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L618" t="inlineStr"/>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -24383,11 +22275,7 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L619" t="inlineStr"/>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -24422,11 +22310,7 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L620" t="inlineStr"/>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -24461,11 +22345,7 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L621" t="inlineStr"/>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -24500,11 +22380,7 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L622" t="inlineStr"/>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -24539,11 +22415,7 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L623" t="inlineStr"/>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -24578,11 +22450,7 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L624" t="inlineStr"/>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -24617,11 +22485,7 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L625" t="inlineStr"/>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -24656,11 +22520,7 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L626" t="inlineStr"/>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -24695,11 +22555,7 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L627" t="inlineStr"/>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -24734,11 +22590,7 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L628" t="inlineStr"/>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -24773,11 +22625,7 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L629" t="inlineStr"/>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -24812,11 +22660,7 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L630" t="inlineStr"/>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -24851,11 +22695,7 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L631" t="inlineStr"/>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -24890,11 +22730,7 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L632" t="inlineStr"/>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -24929,11 +22765,7 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L633" t="inlineStr"/>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -24968,11 +22800,7 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L634" t="inlineStr"/>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -25007,11 +22835,7 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L635" t="inlineStr"/>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -25046,11 +22870,7 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L636" t="inlineStr"/>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -25085,11 +22905,7 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L637" t="inlineStr"/>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -25124,11 +22940,7 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L638" t="inlineStr"/>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -25163,11 +22975,7 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L639" t="inlineStr"/>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -25202,11 +23010,7 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L640" t="inlineStr"/>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -25241,11 +23045,7 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L641" t="inlineStr"/>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -25280,11 +23080,7 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L642" t="inlineStr"/>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -25319,11 +23115,7 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L643" t="inlineStr"/>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -25358,11 +23150,7 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L644" t="inlineStr"/>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -25397,11 +23185,7 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L645" t="inlineStr"/>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -25436,11 +23220,7 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L646" t="inlineStr"/>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -25475,11 +23255,7 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L647" t="inlineStr"/>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -25514,11 +23290,7 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L648" t="inlineStr"/>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -25553,11 +23325,7 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L649" t="inlineStr"/>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -25592,11 +23360,7 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L650" t="inlineStr"/>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -25631,11 +23395,7 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L651" t="inlineStr"/>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -25670,11 +23430,7 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L652" t="inlineStr"/>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -25709,11 +23465,7 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L653" t="inlineStr"/>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -25748,11 +23500,7 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L654" t="inlineStr"/>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -25787,11 +23535,7 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L655" t="inlineStr"/>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -25826,11 +23570,7 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L656" t="inlineStr"/>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -25865,11 +23605,7 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L657" t="inlineStr"/>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -25904,11 +23640,7 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L658" t="inlineStr"/>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -25943,11 +23675,7 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L659" t="inlineStr"/>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -25982,11 +23710,7 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L660" t="inlineStr"/>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -26021,11 +23745,7 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L661" t="inlineStr"/>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -26060,11 +23780,7 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L662" t="inlineStr"/>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -26099,11 +23815,7 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L663" t="inlineStr"/>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -26138,11 +23850,7 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L664" t="inlineStr"/>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -26177,11 +23885,7 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L665" t="inlineStr"/>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -26216,11 +23920,7 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L666" t="inlineStr"/>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -26255,11 +23955,7 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L667" t="inlineStr"/>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -26294,11 +23990,7 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L668" t="inlineStr"/>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -26333,11 +24025,7 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L669" t="inlineStr"/>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -26372,11 +24060,7 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L670" t="inlineStr"/>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -26411,11 +24095,7 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L671" t="inlineStr"/>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -26450,11 +24130,7 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L672" t="inlineStr"/>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -26489,11 +24165,7 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L673" t="inlineStr"/>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -26528,11 +24200,7 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L674" t="inlineStr"/>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -26567,11 +24235,7 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L675" t="inlineStr"/>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -26606,11 +24270,7 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L676" t="inlineStr"/>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -26645,11 +24305,7 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L677" t="inlineStr"/>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -26684,11 +24340,7 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L678" t="inlineStr"/>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -26723,11 +24375,7 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L679" t="inlineStr"/>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -26762,11 +24410,7 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L680" t="inlineStr"/>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -26801,11 +24445,7 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L681" t="inlineStr"/>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -26840,11 +24480,7 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L682" t="inlineStr"/>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -26879,11 +24515,7 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L683" t="inlineStr"/>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -26918,11 +24550,7 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L684" t="inlineStr"/>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -26957,11 +24585,7 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L685" t="inlineStr"/>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -26996,11 +24620,7 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L686" t="inlineStr"/>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -27035,11 +24655,7 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L687" t="inlineStr"/>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -27074,11 +24690,7 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L688" t="inlineStr"/>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -27113,11 +24725,7 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L689" t="inlineStr"/>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -27152,11 +24760,7 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L690" t="inlineStr"/>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -27191,11 +24795,7 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L691" t="inlineStr"/>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -27230,11 +24830,7 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L692" t="inlineStr"/>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -27269,11 +24865,7 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L693" t="inlineStr"/>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -27308,11 +24900,7 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L694" t="inlineStr"/>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -27347,11 +24935,7 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L695" t="inlineStr"/>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -27386,11 +24970,7 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L696" t="inlineStr"/>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -27425,11 +25005,7 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L697" t="inlineStr"/>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -27464,11 +25040,7 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L698" t="inlineStr"/>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -27503,11 +25075,7 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L699" t="inlineStr"/>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -27542,11 +25110,7 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L700" t="inlineStr"/>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -27581,11 +25145,7 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L701" t="inlineStr"/>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -27620,11 +25180,7 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L702" t="inlineStr"/>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -27659,11 +25215,7 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L703" t="inlineStr"/>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -27698,11 +25250,7 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L704" t="inlineStr"/>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -27737,11 +25285,7 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L705" t="inlineStr"/>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -27776,11 +25320,7 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L706" t="inlineStr"/>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -27815,11 +25355,7 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L707" t="inlineStr"/>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -27854,11 +25390,7 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L708" t="inlineStr"/>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -27893,11 +25425,7 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L709" t="inlineStr"/>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -27932,11 +25460,7 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L710" t="inlineStr"/>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -27971,11 +25495,7 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L711" t="inlineStr"/>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -28010,11 +25530,7 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L712" t="inlineStr"/>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -28049,11 +25565,7 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L713" t="inlineStr"/>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -28088,11 +25600,7 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L714" t="inlineStr"/>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -28127,11 +25635,7 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L715" t="inlineStr"/>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -28166,11 +25670,7 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L716" t="inlineStr"/>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -28205,11 +25705,7 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L717" t="inlineStr"/>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -28244,11 +25740,7 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L718" t="inlineStr"/>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -28283,11 +25775,7 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L719" t="inlineStr"/>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -28322,11 +25810,7 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L720" t="inlineStr"/>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -28361,11 +25845,7 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L721" t="inlineStr"/>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -28400,11 +25880,7 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L722" t="inlineStr"/>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -28439,11 +25915,7 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L723" t="inlineStr"/>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -28478,11 +25950,7 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L724" t="inlineStr"/>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -28517,11 +25985,7 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L725" t="inlineStr"/>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -28556,11 +26020,7 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L726" t="inlineStr"/>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -28595,11 +26055,7 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L727" t="inlineStr"/>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -28634,11 +26090,7 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L728" t="inlineStr"/>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -28673,11 +26125,7 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L729" t="inlineStr"/>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -28712,11 +26160,7 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L730" t="inlineStr"/>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -28751,11 +26195,7 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L731" t="inlineStr"/>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -28790,11 +26230,7 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L732" t="inlineStr"/>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -28829,11 +26265,7 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L733" t="inlineStr"/>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -28868,11 +26300,7 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L734" t="inlineStr"/>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -28907,11 +26335,7 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L735" t="inlineStr"/>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -28946,11 +26370,7 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L736" t="inlineStr"/>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -28985,11 +26405,7 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L737" t="inlineStr"/>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -29024,11 +26440,7 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L738" t="inlineStr"/>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -29063,11 +26475,7 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L739" t="inlineStr"/>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -29102,11 +26510,7 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L740" t="inlineStr"/>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -29141,11 +26545,7 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L741" t="inlineStr"/>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -29180,11 +26580,7 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L742" t="inlineStr"/>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -29219,11 +26615,7 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L743" t="inlineStr"/>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -29258,11 +26650,7 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L744" t="inlineStr"/>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -29297,11 +26685,7 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L745" t="inlineStr"/>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -29336,11 +26720,7 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L746" t="inlineStr"/>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -29375,11 +26755,7 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L747" t="inlineStr"/>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -29414,11 +26790,7 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L748" t="inlineStr"/>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -29449,15 +26821,11 @@
         <v>0</v>
       </c>
       <c r="I749" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L749" t="inlineStr"/>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -29492,11 +26860,7 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L750" t="inlineStr"/>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -29531,11 +26895,7 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L751" t="inlineStr"/>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -29570,11 +26930,7 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L752" t="inlineStr"/>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -29609,11 +26965,7 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L753" t="inlineStr"/>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -29644,16 +26996,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M754" t="inlineStr"/>
+      <c r="L754" t="inlineStr"/>
+      <c r="M754" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
@@ -29681,7 +27031,7 @@
         <v>0</v>
       </c>
       <c r="I755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
@@ -29716,7 +27066,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
@@ -29751,7 +27101,7 @@
         <v>0</v>
       </c>
       <c r="I757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
@@ -29786,7 +27136,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
@@ -29821,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>

--- a/BackTest/2019-10-24 BackTest FNB.xlsx
+++ b/BackTest/2019-10-24 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>23505643.58783292</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>24515692.23213292</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>24515692.23213292</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>23278580.88803292</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>23278580.88803292</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>23495162.32653292</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>23021953.07023292</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>20939418.13653292</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>22096821.57319532</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>22096821.57319532</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>22096821.57319532</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>23231823.99139532</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>25265929.79559533</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>25265929.79559533</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>24630525.19949533</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>25881697.15139533</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>25834236.40419533</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>25834236.40419533</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>25048474.47559533</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>22612781.63739533</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>18083851.58779533</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>19409866.56834871</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>20678845.79019533</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>20426903.43344195</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>21755973.96077737</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>21612355.5068447</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>21752433.5720447</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>20730486.9392447</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>19526628.53054469</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>18699349.11254469</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>19065873.06074469</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>19601307.34834469</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>19601307.34834469</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>19845022.07474469</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>19815105.53774469</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>19815105.53774469</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>19815105.53774469</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>19815105.53774469</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>19548955.52384469</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>19548955.52384469</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>19550124.31734469</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>19548427.29444469</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>19548427.29444469</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>19118395.48774469</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>19118395.48774469</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>19391142.00674469</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>19166282.19634469</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>18812572.92374469</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>17045505.88664469</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>17786719.62754469</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>18847198.94434469</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>18612645.72534469</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>16554212.88709413</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>16554212.88709413</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>16554212.88709413</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>16672025.18219413</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>16670079.34519413</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>16670079.34519413</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>16670079.34519413</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>16870875.03939413</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>17040946.67779413</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>17132005.35389413</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>16998566.66179717</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>17001588.66179717</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>16878070.6555305</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>16871684.8902305</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>16872838.5447305</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>16872838.5447305</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>16872838.5447305</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>16869515.6364305</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>16873059.60023202</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>16871059.60023202</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>16871069.60023202</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>16279805.87023202</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>15580958.59458509</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>15882849.50608509</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>15752373.92308509</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>15620557.94498509</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>15818708.50688509</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>15765896.58798509</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>15795956.58798509</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>13035025.31957874</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>13001303.21227874</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>13001313.21227874</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -20944,17 +20944,11 @@
         <v>8534673.610335223</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20983,17 +20977,11 @@
         <v>7210342.350235224</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21022,17 +21010,11 @@
         <v>7831494.160035224</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21061,17 +21043,11 @@
         <v>7475003.39016103</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21100,17 +21076,11 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21139,17 +21109,11 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21178,17 +21142,11 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21217,17 +21175,11 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21264,7 +21216,7 @@
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L631" t="n">
@@ -21295,11 +21247,9 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21334,11 +21284,9 @@
         <v>7896308.95666103</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21373,11 +21321,9 @@
         <v>7896308.95666103</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -21529,11 +21475,9 @@
         <v>7895737.45666103</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -21685,11 +21629,9 @@
         <v>7947444.08286103</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -21724,11 +21666,9 @@
         <v>7932251.101561029</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -21763,11 +21703,9 @@
         <v>7932251.101561029</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -21841,11 +21779,9 @@
         <v>7932251.101561029</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -21880,11 +21816,9 @@
         <v>8136621.69236103</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -21919,11 +21853,9 @@
         <v>8102205.16716103</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -21958,11 +21890,9 @@
         <v>8102257.73716103</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -21997,11 +21927,9 @@
         <v>8102257.73716103</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -22036,11 +21964,9 @@
         <v>8102257.73716103</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -22153,11 +22079,9 @@
         <v>7802141.78066103</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -22192,11 +22116,9 @@
         <v>7802141.78066103</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -22309,11 +22231,9 @@
         <v>7607473.368661029</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -22816,11 +22736,9 @@
         <v>7736593.74076103</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -22855,11 +22773,9 @@
         <v>7736593.74076103</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -22894,11 +22810,9 @@
         <v>7736593.74076103</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -22933,11 +22847,9 @@
         <v>7577254.03076103</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -22972,11 +22884,9 @@
         <v>7533294.98506103</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -23011,11 +22921,9 @@
         <v>7533326.85806103</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -23050,11 +22958,9 @@
         <v>7533326.85806103</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
@@ -23089,11 +22995,9 @@
         <v>7756933.090761029</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
@@ -23128,11 +23032,9 @@
         <v>7756933.090761029</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
@@ -23167,11 +23069,9 @@
         <v>7607781.72596103</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
@@ -23206,11 +23106,9 @@
         <v>7661484.87556103</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
@@ -23245,11 +23143,9 @@
         <v>7551413.764461029</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
@@ -23284,11 +23180,9 @@
         <v>7551413.764461029</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -23323,11 +23217,9 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
@@ -23362,11 +23254,9 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -23401,11 +23291,9 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -23440,11 +23328,9 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -23479,11 +23365,9 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -23518,11 +23402,9 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -23557,11 +23439,9 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
-      </c>
-      <c r="I690" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -23596,11 +23476,9 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
-      </c>
-      <c r="I691" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
@@ -23635,11 +23513,9 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
-      </c>
-      <c r="I692" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
@@ -23674,11 +23550,9 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
@@ -23713,11 +23587,9 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -23752,11 +23624,9 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -23791,11 +23661,9 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
@@ -23830,11 +23698,9 @@
         <v>7934261.585861029</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
@@ -23869,11 +23735,9 @@
         <v>7873573.245761029</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
@@ -23908,11 +23772,9 @@
         <v>7873573.245761029</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
@@ -23947,11 +23809,9 @@
         <v>7888755.330761029</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
@@ -23986,11 +23846,9 @@
         <v>7888755.330761029</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
@@ -24025,11 +23883,9 @@
         <v>7878755.330761029</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
@@ -24064,11 +23920,9 @@
         <v>8103891.801961029</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
@@ -24103,11 +23957,9 @@
         <v>8103891.801961029</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
@@ -24142,11 +23994,9 @@
         <v>8160994.826561029</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
@@ -24181,11 +24031,9 @@
         <v>8160994.826561029</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
@@ -24220,11 +24068,9 @@
         <v>8160994.826561029</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
@@ -24259,11 +24105,9 @@
         <v>8020610.199561029</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -24298,11 +24142,9 @@
         <v>8020610.199561029</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -24337,11 +24179,9 @@
         <v>8020610.199561029</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
@@ -24376,11 +24216,9 @@
         <v>7254270.007661029</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
@@ -24415,11 +24253,9 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -24454,11 +24290,9 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -24493,11 +24327,9 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -24532,11 +24364,9 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24571,11 +24401,9 @@
         <v>7259037.175561029</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -24610,11 +24438,9 @@
         <v>7259026.175561029</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -24649,11 +24475,9 @@
         <v>6999435.621361029</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -24688,11 +24512,9 @@
         <v>7260266.54176103</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -24727,11 +24549,9 @@
         <v>7240289.05806103</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -24766,11 +24586,9 @@
         <v>7240299.05806103</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
-      </c>
-      <c r="I721" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -24805,11 +24623,9 @@
         <v>7131337.22286103</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -24844,11 +24660,9 @@
         <v>7131337.22286103</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
-      </c>
-      <c r="I723" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -24883,11 +24697,9 @@
         <v>6950982.09976103</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -24922,11 +24734,9 @@
         <v>6950982.09976103</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -24961,11 +24771,9 @@
         <v>6950982.09976103</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -25000,11 +24808,9 @@
         <v>7261422.768261029</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -25039,11 +24845,9 @@
         <v>7174774.768261029</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -25078,11 +24882,9 @@
         <v>7174774.768261029</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -25117,11 +24919,9 @@
         <v>7274290.12056103</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -25156,11 +24956,9 @@
         <v>7184264.49406103</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -25195,11 +24993,9 @@
         <v>7191624.70786103</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -25273,11 +25069,9 @@
         <v>6988652.981461029</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -25312,11 +25106,9 @@
         <v>5783203.300161029</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -25351,11 +25143,9 @@
         <v>6241988.940561029</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -25429,11 +25219,9 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -25468,11 +25256,9 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -25507,11 +25293,9 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -25624,11 +25408,9 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -25663,11 +25445,9 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -25741,11 +25521,9 @@
         <v>6243950.332716585</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -25780,11 +25558,9 @@
         <v>5625044.814016585</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -25819,11 +25595,9 @@
         <v>5665168.273516585</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -25897,11 +25671,9 @@
         <v>6540330.989705474</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
-      </c>
-      <c r="I750" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
@@ -25936,11 +25708,9 @@
         <v>6952007.062605474</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -25975,11 +25745,9 @@
         <v>6205459.510005474</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -27067,11 +26835,9 @@
         <v>7175384.875305474</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
@@ -27106,11 +26872,9 @@
         <v>7109003.089105474</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
@@ -27145,11 +26909,9 @@
         <v>7203140.476805474</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -27184,11 +26946,9 @@
         <v>7203130.476805474</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -27262,11 +27022,9 @@
         <v>7203151.476805474</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -27769,11 +27527,9 @@
         <v>7702239.392405474</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -27808,11 +27564,9 @@
         <v>8013844.858705474</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -27847,11 +27601,9 @@
         <v>7713835.103205474</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -27886,11 +27638,9 @@
         <v>7713835.103205474</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -27925,11 +27675,9 @@
         <v>8967330.606905473</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -27964,11 +27712,9 @@
         <v>10443017.27710547</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>13.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -28003,11 +27749,9 @@
         <v>9615112.804105474</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>13.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -28042,11 +27786,9 @@
         <v>13179220.93400547</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>13.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -28081,11 +27823,9 @@
         <v>13358198.86330547</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>13.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -28120,11 +27860,9 @@
         <v>14689490.29820547</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -29269,16 +29007,18 @@
         <v>23622056.90223826</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L838" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L838" t="n">
+        <v>1</v>
+      </c>
       <c r="M838" t="inlineStr"/>
     </row>
     <row r="839">
@@ -29304,11 +29044,15 @@
         <v>22768857.27693826</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29337,11 +29081,15 @@
         <v>22768857.27693826</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29370,11 +29118,15 @@
         <v>22768857.27693826</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29407,7 +29159,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29436,11 +29192,15 @@
         <v>22446163.29053826</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29469,11 +29229,15 @@
         <v>22446163.29053826</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29502,11 +29266,15 @@
         <v>22446163.29053826</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29535,11 +29303,15 @@
         <v>22446163.29053826</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29568,11 +29340,15 @@
         <v>22561785.10933826</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29601,11 +29377,15 @@
         <v>22189794.10583826</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29634,11 +29414,15 @@
         <v>22368734.57713826</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29667,11 +29451,15 @@
         <v>22303545.99513826</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29700,11 +29488,15 @@
         <v>22303545.99513826</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29733,11 +29525,15 @@
         <v>20982219.46773826</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29766,11 +29562,15 @@
         <v>20982239.46773826</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29799,11 +29599,15 @@
         <v>20632205.99293825</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29832,11 +29636,15 @@
         <v>20630793.72723825</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29865,11 +29673,15 @@
         <v>19681880.64323825</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29898,11 +29710,15 @@
         <v>20046482.98424735</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29931,11 +29747,15 @@
         <v>20054468.89474735</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29964,11 +29784,15 @@
         <v>20439296.20334735</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29997,11 +29821,15 @@
         <v>20529396.71824735</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30030,11 +29858,15 @@
         <v>20263862.20124735</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30063,11 +29895,15 @@
         <v>20263862.20124735</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30096,11 +29932,15 @@
         <v>20263862.20124735</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30129,11 +29969,15 @@
         <v>20393454.73984735</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30162,11 +30006,15 @@
         <v>20393454.73984735</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30195,11 +30043,15 @@
         <v>20393454.73984735</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30228,11 +30080,15 @@
         <v>20887839.33384735</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30261,11 +30117,15 @@
         <v>20887839.33384735</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30294,11 +30154,15 @@
         <v>20887839.33384735</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30327,11 +30191,15 @@
         <v>20817226.42754735</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30360,11 +30228,15 @@
         <v>20870106.42754735</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30393,11 +30265,15 @@
         <v>20793160.01584735</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30426,11 +30302,15 @@
         <v>20937592.89084735</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30459,11 +30339,15 @@
         <v>20937592.89084735</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30492,11 +30376,15 @@
         <v>20732339.56764735</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30525,11 +30413,15 @@
         <v>20113035.73542197</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30558,11 +30450,15 @@
         <v>20113035.73542197</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30591,11 +30487,15 @@
         <v>21001935.43902197</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30624,11 +30524,15 @@
         <v>21001935.43902197</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30657,11 +30561,15 @@
         <v>21001935.43902197</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30690,11 +30598,15 @@
         <v>20995199.90962198</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30723,11 +30635,15 @@
         <v>21164893.28072198</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30756,11 +30672,15 @@
         <v>21063182.09852198</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30789,11 +30709,15 @@
         <v>21061391.70622198</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30822,11 +30746,15 @@
         <v>21061391.70622198</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30855,11 +30783,15 @@
         <v>22715716.01362198</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30888,11 +30820,15 @@
         <v>20718435.8286966</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30921,11 +30857,15 @@
         <v>19573884.8976966</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30954,11 +30894,15 @@
         <v>19877833.9934966</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30987,11 +30931,15 @@
         <v>19539162.9879966</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31020,11 +30968,15 @@
         <v>19958183.41412496</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31053,11 +31005,15 @@
         <v>19724239.37452496</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31086,11 +31042,15 @@
         <v>19724239.37452496</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31119,11 +31079,15 @@
         <v>19726193.37452496</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31152,11 +31116,15 @@
         <v>19676183.37452496</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31185,11 +31153,15 @@
         <v>19689670.44212496</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31218,11 +31190,15 @@
         <v>19689659.46962496</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31251,11 +31227,15 @@
         <v>19689670.37182496</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31284,11 +31264,15 @@
         <v>19689670.37182496</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31317,11 +31301,15 @@
         <v>21295119.69641631</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31350,11 +31338,15 @@
         <v>21218763.94741631</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31383,11 +31375,15 @@
         <v>21218763.94741631</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31416,11 +31412,15 @@
         <v>21218763.94741631</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31449,11 +31449,15 @@
         <v>21369792.50421631</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31482,11 +31486,15 @@
         <v>21231797.36931631</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31515,11 +31523,15 @@
         <v>21367343.76771631</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31548,11 +31560,15 @@
         <v>21367608.01771631</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31581,11 +31597,15 @@
         <v>21367608.01771631</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31614,11 +31634,15 @@
         <v>21346302.56441631</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31647,11 +31671,15 @@
         <v>21346302.56441631</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31680,11 +31708,15 @@
         <v>21331302.56441631</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31713,11 +31745,15 @@
         <v>21262801.46191631</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31746,11 +31782,15 @@
         <v>21262801.46191631</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31779,11 +31819,15 @@
         <v>21262801.46191631</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31812,11 +31856,15 @@
         <v>21262801.46191631</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31845,11 +31893,15 @@
         <v>21262801.46191631</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31878,11 +31930,15 @@
         <v>21262801.46191631</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31911,11 +31967,15 @@
         <v>21075948.25771631</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31944,11 +32004,15 @@
         <v>21075948.25771631</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31977,11 +32041,15 @@
         <v>21075958.25771631</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -32010,11 +32078,15 @@
         <v>21075958.25771631</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -32043,11 +32115,15 @@
         <v>21217665.60651631</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32076,11 +32152,15 @@
         <v>21034965.17931631</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32109,11 +32189,15 @@
         <v>21034965.17931631</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32146,7 +32230,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32175,11 +32263,15 @@
         <v>21141893.84121333</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32208,11 +32300,15 @@
         <v>21141893.84121333</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32241,11 +32337,15 @@
         <v>21109161.39761333</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32274,11 +32374,15 @@
         <v>21109161.39761333</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32307,11 +32411,15 @@
         <v>21109161.39761333</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32340,11 +32448,15 @@
         <v>21109161.39761333</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32373,11 +32485,15 @@
         <v>21324288.59301333</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32406,11 +32522,15 @@
         <v>20896807.22171333</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32439,11 +32559,15 @@
         <v>20947755.35591333</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32472,11 +32596,15 @@
         <v>21071670.33041631</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32505,11 +32633,15 @@
         <v>20996150.82303422</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32542,7 +32674,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32571,11 +32707,15 @@
         <v>21113741.82303422</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32604,11 +32744,15 @@
         <v>21113741.82303422</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32637,11 +32781,15 @@
         <v>21021163.22463422</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32670,11 +32818,15 @@
         <v>21021163.22463422</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32703,11 +32855,15 @@
         <v>21033163.22463422</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32736,11 +32892,15 @@
         <v>21033163.22463422</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32769,11 +32929,15 @@
         <v>21033163.22463422</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32802,11 +32966,15 @@
         <v>21004488.34413422</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32835,11 +33003,15 @@
         <v>21087881.21953422</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32868,11 +33040,15 @@
         <v>21070272.52413422</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32901,11 +33077,15 @@
         <v>21070272.52413422</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32934,11 +33114,15 @@
         <v>21070272.52413422</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32967,11 +33151,15 @@
         <v>21070272.52413422</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33000,11 +33188,15 @@
         <v>21070272.52413422</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33033,11 +33225,15 @@
         <v>21070272.52413422</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33066,11 +33262,15 @@
         <v>20845194.34213422</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33099,11 +33299,15 @@
         <v>20864640.62993422</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33132,11 +33336,15 @@
         <v>20864640.62993422</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33165,11 +33373,15 @@
         <v>20739060.22563422</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33198,11 +33410,15 @@
         <v>20739060.22563422</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33231,11 +33447,15 @@
         <v>21441620.97743422</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33264,11 +33484,15 @@
         <v>21202714.82563422</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33297,11 +33521,15 @@
         <v>21218088.66013422</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33330,11 +33558,15 @@
         <v>21125338.09763422</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33363,11 +33595,15 @@
         <v>21125338.09763422</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33396,11 +33632,15 @@
         <v>21125338.09763422</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33429,11 +33669,15 @@
         <v>21125338.09763422</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33462,11 +33706,15 @@
         <v>21125426.29303422</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33495,11 +33743,15 @@
         <v>21123149.32733648</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33528,11 +33780,15 @@
         <v>21123149.32733648</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33561,11 +33817,15 @@
         <v>21123149.32733648</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33594,11 +33854,15 @@
         <v>21271449.72003648</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33627,11 +33891,15 @@
         <v>21271449.72003648</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33660,11 +33928,15 @@
         <v>21271449.72003648</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33693,11 +33965,15 @@
         <v>21271449.72003648</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33726,11 +34002,15 @@
         <v>21271449.72003648</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33763,7 +34043,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33792,11 +34076,15 @@
         <v>21414176.89653648</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33825,11 +34113,15 @@
         <v>21414176.89653648</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33858,11 +34150,15 @@
         <v>21749441.90863648</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33891,11 +34187,15 @@
         <v>22473131.34673648</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33924,11 +34224,15 @@
         <v>22473131.34673648</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33957,11 +34261,15 @@
         <v>23480354.40006001</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33990,11 +34298,15 @@
         <v>23480354.40006001</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34023,11 +34335,15 @@
         <v>23480354.40006001</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34056,11 +34372,15 @@
         <v>23480354.40006001</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34089,11 +34409,15 @@
         <v>23480354.40006001</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34122,11 +34446,15 @@
         <v>24287061.42526001</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34155,11 +34483,15 @@
         <v>24287061.42526001</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34188,11 +34520,15 @@
         <v>23753422.64716001</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34221,11 +34557,15 @@
         <v>22321182.53736804</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34254,11 +34594,15 @@
         <v>22102734.73886804</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34287,11 +34631,15 @@
         <v>23246352.00076804</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34320,11 +34668,15 @@
         <v>23246352.00076804</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34353,11 +34705,15 @@
         <v>23119258.80956804</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34386,11 +34742,15 @@
         <v>23119258.80956804</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34419,11 +34779,15 @@
         <v>23119258.80956804</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34452,11 +34816,15 @@
         <v>23119258.80956804</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34485,11 +34853,15 @@
         <v>23040717.42646804</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34518,11 +34890,15 @@
         <v>23279065.03246804</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34551,11 +34927,15 @@
         <v>23279065.03246804</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34584,11 +34964,15 @@
         <v>23279065.03246804</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34617,11 +35001,15 @@
         <v>23287630.09126804</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34650,11 +35038,15 @@
         <v>22909956.80816804</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34683,11 +35075,15 @@
         <v>22909956.80816804</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34716,11 +35112,15 @@
         <v>22946946.72916804</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34749,11 +35149,15 @@
         <v>22946946.72916804</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34782,11 +35186,15 @@
         <v>22946946.72916804</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34815,11 +35223,15 @@
         <v>22946946.72916804</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34848,11 +35260,15 @@
         <v>22946946.72916804</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34881,11 +35297,15 @@
         <v>22946911.72916804</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34914,11 +35334,15 @@
         <v>22946911.72916804</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34947,11 +35371,15 @@
         <v>23372384.52466803</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34980,11 +35408,15 @@
         <v>23372384.52466803</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -35013,11 +35445,15 @@
         <v>23372362.52466803</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -35046,11 +35482,15 @@
         <v>23372362.52466803</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -35079,11 +35519,15 @@
         <v>23446374.30206803</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35112,11 +35556,15 @@
         <v>23446374.30206803</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35145,11 +35593,15 @@
         <v>23446374.30206803</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35178,11 +35630,15 @@
         <v>23446414.30206803</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35211,11 +35667,15 @@
         <v>23446414.30206803</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35244,11 +35704,15 @@
         <v>23446414.30206803</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35277,11 +35741,15 @@
         <v>23446414.30206803</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35310,11 +35778,15 @@
         <v>23446414.30206803</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35343,11 +35815,15 @@
         <v>23446414.30206803</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35376,11 +35852,15 @@
         <v>23446414.30206803</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35409,11 +35889,15 @@
         <v>23253151.59356803</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35442,11 +35926,15 @@
         <v>23252757.37846803</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35475,11 +35963,15 @@
         <v>23252757.37846803</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35508,11 +36000,15 @@
         <v>23252757.37846803</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35541,11 +36037,15 @@
         <v>23252757.37846803</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35574,11 +36074,15 @@
         <v>23252757.37846803</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35607,11 +36111,15 @@
         <v>23252757.37846803</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35640,11 +36148,15 @@
         <v>23207800.83586803</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35673,11 +36185,15 @@
         <v>23262984.92746803</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35706,11 +36222,15 @@
         <v>23262984.92746803</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35739,11 +36259,15 @@
         <v>23213421.42656803</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35772,11 +36296,15 @@
         <v>23183647.93056803</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35805,11 +36333,15 @@
         <v>23336730.76776803</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35838,11 +36370,15 @@
         <v>23262390.10126803</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35871,11 +36407,15 @@
         <v>23249210.55916803</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35904,11 +36444,15 @@
         <v>23332025.07766803</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35937,11 +36481,15 @@
         <v>23073864.57266803</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35970,11 +36518,15 @@
         <v>23073864.57266803</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -36003,11 +36555,15 @@
         <v>23073864.57266803</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -36036,11 +36592,15 @@
         <v>22907203.45206803</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -36069,11 +36629,15 @@
         <v>22907203.45206803</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -36102,11 +36666,15 @@
         <v>22907203.45206803</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -36135,11 +36703,15 @@
         <v>22907223.45206803</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -36168,11 +36740,15 @@
         <v>22837319.77126804</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -36201,11 +36777,15 @@
         <v>22791939.58895826</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -36234,11 +36814,15 @@
         <v>21745618.01325826</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -36267,11 +36851,15 @@
         <v>22646444.42115826</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36300,11 +36888,15 @@
         <v>22192282.07765826</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36333,11 +36925,15 @@
         <v>23071620.73115826</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36366,11 +36962,15 @@
         <v>23374241.60435826</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36399,11 +36999,15 @@
         <v>23175314.99035826</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36432,11 +37036,15 @@
         <v>23175314.99035826</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36465,11 +37073,15 @@
         <v>23175314.99035826</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36498,11 +37110,15 @@
         <v>23175314.99035826</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36531,11 +37147,15 @@
         <v>23188104.08125826</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36564,11 +37184,15 @@
         <v>23188104.08125826</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36597,11 +37221,15 @@
         <v>23188104.08125826</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36630,11 +37258,15 @@
         <v>22677565.40225826</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36663,11 +37295,15 @@
         <v>22785243.38388554</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36696,11 +37332,15 @@
         <v>22785243.38388554</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36729,11 +37369,15 @@
         <v>22675739.49478554</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36762,11 +37406,15 @@
         <v>22675739.49478554</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36795,11 +37443,15 @@
         <v>22870987.17868553</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36828,11 +37480,15 @@
         <v>22870987.17868553</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36861,11 +37517,15 @@
         <v>22714859.96978553</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36894,11 +37554,15 @@
         <v>22802942.62068553</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36927,11 +37591,15 @@
         <v>22802942.62068553</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36960,11 +37628,15 @@
         <v>22802942.62068553</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36993,11 +37665,15 @@
         <v>22835701.34414849</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -37026,11 +37702,15 @@
         <v>22835701.34414849</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -37059,11 +37739,15 @@
         <v>22835701.34414849</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -37092,11 +37776,15 @@
         <v>22768690.00844849</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37125,11 +37813,15 @@
         <v>22768690.00844849</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37158,11 +37850,15 @@
         <v>22768690.00844849</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37191,11 +37887,15 @@
         <v>19747506.58654848</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -37224,11 +37924,15 @@
         <v>19747516.58654848</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -37257,11 +37961,15 @@
         <v>19747516.58654848</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37290,11 +37998,15 @@
         <v>19747516.58654848</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37323,11 +38035,15 @@
         <v>19539631.79214849</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37356,11 +38072,15 @@
         <v>19832252.70404848</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37389,11 +38109,15 @@
         <v>19832252.70404848</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37422,11 +38146,15 @@
         <v>19832252.70404848</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37455,11 +38183,15 @@
         <v>19675720.10344848</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37488,11 +38220,15 @@
         <v>19855704.34694849</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37521,11 +38257,15 @@
         <v>20067309.53134849</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -37554,11 +38294,15 @@
         <v>20067309.53134849</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -37587,11 +38331,15 @@
         <v>20067309.53134849</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -37620,11 +38368,15 @@
         <v>20611242.04954848</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -37653,11 +38405,15 @@
         <v>20521181.90104849</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -37686,11 +38442,15 @@
         <v>20541019.47454849</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -37719,11 +38479,15 @@
         <v>20541019.47454849</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -37752,11 +38516,15 @@
         <v>20541019.47454849</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -37785,11 +38553,15 @@
         <v>20541019.47454849</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -37818,11 +38590,15 @@
         <v>20541019.47454849</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -37851,11 +38627,15 @@
         <v>20477987.25064848</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -37884,11 +38664,15 @@
         <v>20755373.41734849</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -37917,11 +38701,15 @@
         <v>20755373.41734849</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -37950,11 +38738,15 @@
         <v>20755373.41734849</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -37983,11 +38775,15 @@
         <v>20755373.41734849</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -38016,11 +38812,15 @@
         <v>20755373.41734849</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -38049,11 +38849,15 @@
         <v>20218917.88814849</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -38082,11 +38886,15 @@
         <v>20218917.88814849</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -38115,11 +38923,15 @@
         <v>16136079.69994849</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -38148,11 +38960,15 @@
         <v>16136079.69994849</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -38181,11 +38997,15 @@
         <v>16018558.36924849</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -38214,11 +39034,15 @@
         <v>16018558.36924849</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -38247,11 +39071,15 @@
         <v>16513575.29514848</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -38280,11 +39108,15 @@
         <v>16513660.29514848</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -38313,11 +39145,15 @@
         <v>16513660.29514848</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -38346,11 +39182,15 @@
         <v>16424834.26014848</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -38379,11 +39219,15 @@
         <v>16360075.52984848</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -38412,11 +39256,15 @@
         <v>16360075.52984848</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -38445,11 +39293,15 @@
         <v>16250222.59344848</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr"/>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -38478,11 +39330,15 @@
         <v>14828012.41132121</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -38511,11 +39367,15 @@
         <v>15115534.61549394</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -38544,11 +39404,15 @@
         <v>15115534.61549394</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -38577,11 +39441,15 @@
         <v>15115534.61549394</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -38610,11 +39478,15 @@
         <v>15228127.94179394</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -38643,11 +39515,15 @@
         <v>15211005.97259394</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -38676,11 +39552,15 @@
         <v>15300927.76899394</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -38709,11 +39589,15 @@
         <v>15300927.76899394</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -38742,11 +39626,15 @@
         <v>15135116.96279394</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -38775,11 +39663,15 @@
         <v>11671712.43679394</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -38808,11 +39700,15 @@
         <v>12407787.79549394</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -38841,11 +39737,15 @@
         <v>12464121.97439394</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -38874,11 +39774,15 @@
         <v>11368475.23989394</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -38907,11 +39811,15 @@
         <v>11368475.23989394</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -38944,7 +39852,11 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -38977,7 +39889,11 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -39010,7 +39926,11 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -39043,7 +39963,11 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -39076,7 +40000,11 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -39109,7 +40037,11 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -39142,7 +40074,11 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -39175,7 +40111,11 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -39208,7 +40148,11 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -39241,7 +40185,11 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -39274,7 +40222,11 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -39307,7 +40259,11 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -39340,7 +40296,11 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -39373,7 +40333,11 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -39406,7 +40370,11 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -39439,7 +40407,11 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -39472,7 +40444,11 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -39505,7 +40481,11 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -39538,7 +40518,11 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -39571,7 +40555,11 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -39604,7 +40592,11 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -39637,7 +40629,11 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -39670,7 +40666,11 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -39703,7 +40703,11 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -39736,7 +40740,11 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -39769,7 +40777,11 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -39802,7 +40814,11 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -39835,7 +40851,11 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -39868,7 +40888,11 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -39901,7 +40925,11 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -39934,7 +40962,11 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -39967,7 +40999,11 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -40000,7 +41036,11 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -40033,7 +41073,11 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -40066,7 +41110,11 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -40099,7 +41147,11 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -40132,7 +41184,11 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -40165,7 +41221,11 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -40198,7 +41258,11 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -40231,7 +41295,11 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -40264,7 +41332,11 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -40297,7 +41369,11 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -40330,7 +41406,11 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -40363,7 +41443,11 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -40396,7 +41480,11 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -40429,7 +41517,11 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr"/>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -40462,13 +41554,17 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr"/>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
       <c r="M1177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest FNB.xlsx
+++ b/BackTest/2019-10-24 BackTest FNB.xlsx
@@ -583,7 +583,7 @@
         <v>23505643.58783292</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>24515692.23213292</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>24515692.23213292</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>23495162.32653292</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>23231823.99139532</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>23500939.25815664</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>24140730.30569533</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>26895252.88169533</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>24346663.59089532</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>23783595.57159533</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>25265929.79559533</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>25265929.79559533</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>24630525.19949533</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>25881697.15139533</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>25834236.40419533</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>25834236.40419533</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>25048474.47559533</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>22612781.63739533</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>18083851.58779533</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>16554212.88709413</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>16554212.88709413</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>16554212.88709413</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>16672025.18219413</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>16670079.34519413</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>16670079.34519413</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>16670079.34519413</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>16870875.03939413</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>17040946.67779413</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>17132005.35389413</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>16998566.66179717</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>17001588.66179717</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>16878070.6555305</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>16871684.8902305</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>16872838.5447305</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>16872838.5447305</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>16872838.5447305</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>16869515.6364305</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>16873059.60023202</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>16871059.60023202</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>16871069.60023202</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>16279805.87023202</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>15580958.59458509</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>15882849.50608509</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>15752373.92308509</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>15620557.94498509</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>15818708.50688509</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>15765896.58798509</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>15795956.58798509</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -19096,11 +19096,17 @@
         <v>10020649.47277874</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>13.3</v>
+      </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +19135,17 @@
         <v>10146989.04417874</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>13.2</v>
+      </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19166,7 +19178,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19199,7 +19215,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19228,11 +19248,17 @@
         <v>8702158.734078741</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>13</v>
+      </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +19287,17 @@
         <v>8702158.734078741</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>13.1</v>
+      </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19298,7 +19330,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19327,11 +19363,17 @@
         <v>8702178.734078741</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>13.1</v>
+      </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19364,7 +19406,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19397,7 +19443,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19430,7 +19480,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +19517,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19496,7 +19554,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19529,7 +19591,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19562,7 +19628,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19595,7 +19665,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19628,7 +19702,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19661,7 +19739,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19694,7 +19776,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +19809,17 @@
         <v>8712110.420935228</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +19852,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19793,7 +19889,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19826,7 +19926,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19859,7 +19963,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19892,7 +20000,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19921,11 +20033,17 @@
         <v>9010033.998235228</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>13</v>
+      </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19958,7 +20076,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19991,7 +20113,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20024,7 +20150,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20057,7 +20187,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20090,7 +20224,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +20261,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20156,7 +20298,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +20335,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +20372,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20255,7 +20409,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20288,7 +20446,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20321,7 +20483,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20354,7 +20520,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20383,11 +20553,17 @@
         <v>9505663.324235225</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +20596,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +20633,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +20670,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +20707,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +20744,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20585,7 +20781,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +20818,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20651,7 +20855,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20684,7 +20892,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20717,7 +20929,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20750,7 +20966,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20783,7 +21003,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20816,7 +21040,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20849,7 +21077,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20882,7 +21114,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20911,11 +21147,17 @@
         <v>8859228.968735224</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20944,11 +21186,17 @@
         <v>8534673.610335223</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20977,11 +21225,17 @@
         <v>7210342.350235224</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +21264,17 @@
         <v>7831494.160035224</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21043,11 +21303,17 @@
         <v>7475003.39016103</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21076,11 +21342,17 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21109,11 +21381,17 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +21420,17 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21175,11 +21459,17 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21216,7 +21506,7 @@
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L631" t="n">
@@ -21247,9 +21537,11 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21284,9 +21576,11 @@
         <v>7896308.95666103</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21321,9 +21615,11 @@
         <v>7896308.95666103</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -21475,9 +21771,11 @@
         <v>7895737.45666103</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -21629,9 +21927,11 @@
         <v>7947444.08286103</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -21666,9 +21966,11 @@
         <v>7932251.101561029</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -21703,9 +22005,11 @@
         <v>7932251.101561029</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -21779,9 +22083,11 @@
         <v>7932251.101561029</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -21816,9 +22122,11 @@
         <v>8136621.69236103</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -21853,9 +22161,11 @@
         <v>8102205.16716103</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -21890,9 +22200,11 @@
         <v>8102257.73716103</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -21927,9 +22239,11 @@
         <v>8102257.73716103</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -21964,9 +22278,11 @@
         <v>8102257.73716103</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -22079,9 +22395,11 @@
         <v>7802141.78066103</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -22116,9 +22434,11 @@
         <v>7802141.78066103</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -22231,9 +22551,11 @@
         <v>7607473.368661029</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -22736,9 +23058,11 @@
         <v>7736593.74076103</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -22773,9 +23097,11 @@
         <v>7736593.74076103</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -22810,9 +23136,11 @@
         <v>7736593.74076103</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -22847,9 +23175,11 @@
         <v>7577254.03076103</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -22884,9 +23214,11 @@
         <v>7533294.98506103</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -22921,9 +23253,11 @@
         <v>7533326.85806103</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -22958,9 +23292,11 @@
         <v>7533326.85806103</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
@@ -22995,9 +23331,11 @@
         <v>7756933.090761029</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
@@ -23032,9 +23370,11 @@
         <v>7756933.090761029</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
@@ -23069,9 +23409,11 @@
         <v>7607781.72596103</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
@@ -23106,9 +23448,11 @@
         <v>7661484.87556103</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
@@ -23143,9 +23487,11 @@
         <v>7551413.764461029</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
@@ -23180,9 +23526,11 @@
         <v>7551413.764461029</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -23217,9 +23565,11 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
@@ -23254,9 +23604,11 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -23291,9 +23643,11 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -23328,9 +23682,11 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -23365,9 +23721,11 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -23402,9 +23760,11 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -23439,9 +23799,11 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -23476,9 +23838,11 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
@@ -23513,9 +23877,11 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
@@ -23550,9 +23916,11 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
@@ -23587,9 +23955,11 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -23624,9 +23994,11 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -23661,9 +24033,11 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
@@ -23698,9 +24072,11 @@
         <v>7934261.585861029</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
@@ -23735,9 +24111,11 @@
         <v>7873573.245761029</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
@@ -23772,9 +24150,11 @@
         <v>7873573.245761029</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
@@ -23809,9 +24189,11 @@
         <v>7888755.330761029</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
@@ -23846,9 +24228,11 @@
         <v>7888755.330761029</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
@@ -23883,9 +24267,11 @@
         <v>7878755.330761029</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
@@ -23920,9 +24306,11 @@
         <v>8103891.801961029</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
@@ -23957,9 +24345,11 @@
         <v>8103891.801961029</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
@@ -23994,9 +24384,11 @@
         <v>8160994.826561029</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
@@ -24031,9 +24423,11 @@
         <v>8160994.826561029</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
@@ -24068,9 +24462,11 @@
         <v>8160994.826561029</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
@@ -24105,9 +24501,11 @@
         <v>8020610.199561029</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -24142,9 +24540,11 @@
         <v>8020610.199561029</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -24179,9 +24579,11 @@
         <v>8020610.199561029</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
@@ -24216,9 +24618,11 @@
         <v>7254270.007661029</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
@@ -24253,9 +24657,11 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -24290,9 +24696,11 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -24327,9 +24735,11 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -24364,9 +24774,11 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24401,9 +24813,11 @@
         <v>7259037.175561029</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -24438,9 +24852,11 @@
         <v>7259026.175561029</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -24475,9 +24891,11 @@
         <v>6999435.621361029</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -24512,9 +24930,11 @@
         <v>7260266.54176103</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -24549,9 +24969,11 @@
         <v>7240289.05806103</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -24586,9 +25008,11 @@
         <v>7240299.05806103</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -24623,9 +25047,11 @@
         <v>7131337.22286103</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -24660,9 +25086,11 @@
         <v>7131337.22286103</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -24697,9 +25125,11 @@
         <v>6950982.09976103</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -24734,9 +25164,11 @@
         <v>6950982.09976103</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -24771,9 +25203,11 @@
         <v>6950982.09976103</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -24808,9 +25242,11 @@
         <v>7261422.768261029</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -24845,9 +25281,11 @@
         <v>7174774.768261029</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -24882,9 +25320,11 @@
         <v>7174774.768261029</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -24919,9 +25359,11 @@
         <v>7274290.12056103</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -24956,9 +25398,11 @@
         <v>7184264.49406103</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -24993,9 +25437,11 @@
         <v>7191624.70786103</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -25069,9 +25515,11 @@
         <v>6988652.981461029</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -25106,9 +25554,11 @@
         <v>5783203.300161029</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -25143,9 +25593,11 @@
         <v>6241988.940561029</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -25219,9 +25671,11 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -25256,9 +25710,11 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -25293,9 +25749,11 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -25408,9 +25866,11 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -25445,9 +25905,11 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -25521,9 +25983,11 @@
         <v>6243950.332716585</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -25558,9 +26022,11 @@
         <v>5625044.814016585</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -25595,9 +26061,11 @@
         <v>5665168.273516585</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -25671,9 +26139,11 @@
         <v>6540330.989705474</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
@@ -25708,9 +26178,11 @@
         <v>6952007.062605474</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -25745,9 +26217,11 @@
         <v>6205459.510005474</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -26835,9 +27309,11 @@
         <v>7175384.875305474</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
@@ -26872,9 +27348,11 @@
         <v>7109003.089105474</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
@@ -26909,9 +27387,11 @@
         <v>7203140.476805474</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -26946,9 +27426,11 @@
         <v>7203130.476805474</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -27022,9 +27504,11 @@
         <v>7203151.476805474</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -27527,9 +28011,11 @@
         <v>7702239.392405474</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -27564,9 +28050,11 @@
         <v>8013844.858705474</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -27601,9 +28089,11 @@
         <v>7713835.103205474</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -27638,9 +28128,11 @@
         <v>7713835.103205474</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -27675,9 +28167,11 @@
         <v>8967330.606905473</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -27712,9 +28206,11 @@
         <v>10443017.27710547</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>13.3</v>
+      </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -27749,9 +28245,11 @@
         <v>9615112.804105474</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>13.4</v>
+      </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -27786,9 +28284,11 @@
         <v>13179220.93400547</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>13.2</v>
+      </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -27823,9 +28323,11 @@
         <v>13358198.86330547</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -28600,18 +29102,16 @@
         <v>24161729.29203826</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L827" t="n">
-        <v>1</v>
-      </c>
+      <c r="L827" t="inlineStr"/>
       <c r="M827" t="inlineStr"/>
     </row>
     <row r="828">
@@ -28637,15 +29137,11 @@
         <v>24161729.29203826</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28674,15 +29170,11 @@
         <v>23121436.55763826</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28711,15 +29203,11 @@
         <v>21828793.65973826</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28752,11 +29240,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28789,11 +29273,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28826,11 +29306,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28863,11 +29339,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28900,11 +29372,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28933,15 +29401,11 @@
         <v>24214375.65213826</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28970,15 +29434,11 @@
         <v>23354748.63553826</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29011,11 +29471,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29048,11 +29504,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29085,11 +29537,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29122,11 +29570,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29159,11 +29603,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29196,11 +29636,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29233,11 +29669,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29270,11 +29702,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29307,11 +29735,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29344,11 +29768,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29381,11 +29801,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29418,11 +29834,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29455,11 +29867,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29492,11 +29900,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29529,11 +29933,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29566,11 +29966,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29603,11 +29999,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29640,11 +30032,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29677,11 +30065,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29714,11 +30098,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29751,11 +30131,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29788,11 +30164,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29825,11 +30197,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29862,11 +30230,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29899,11 +30263,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29936,11 +30296,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29973,11 +30329,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30010,11 +30362,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30047,11 +30395,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30084,11 +30428,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30121,11 +30461,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30158,11 +30494,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30195,11 +30527,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30232,11 +30560,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30269,11 +30593,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30306,11 +30626,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30343,11 +30659,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30380,11 +30692,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30417,11 +30725,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30454,11 +30758,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30491,11 +30791,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30528,11 +30824,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30565,11 +30857,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30602,11 +30890,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30639,11 +30923,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30676,11 +30956,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30713,11 +30989,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30750,11 +31022,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30787,11 +31055,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30824,11 +31088,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30861,11 +31121,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30898,11 +31154,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30935,11 +31187,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30972,11 +31220,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31009,11 +31253,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31046,11 +31286,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31083,11 +31319,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31120,11 +31352,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31157,11 +31385,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31194,11 +31418,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31231,11 +31451,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31268,11 +31484,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31305,11 +31517,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31342,11 +31550,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31379,11 +31583,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31416,11 +31616,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31453,11 +31649,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31490,11 +31682,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31527,11 +31715,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31564,11 +31748,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31601,11 +31781,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31638,11 +31814,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31675,11 +31847,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31712,11 +31880,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31749,11 +31913,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31786,11 +31946,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31823,11 +31979,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31860,11 +32012,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31897,11 +32045,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31934,11 +32078,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31971,11 +32111,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -32008,11 +32144,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -32045,11 +32177,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -32082,11 +32210,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -32119,11 +32243,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32156,11 +32276,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32193,11 +32309,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32230,11 +32342,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32267,11 +32375,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32304,11 +32408,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32341,11 +32441,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32378,11 +32474,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32415,11 +32507,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32452,11 +32540,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32489,11 +32573,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32526,11 +32606,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32563,11 +32639,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32600,11 +32672,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32637,11 +32705,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32674,11 +32738,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32711,11 +32771,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32748,11 +32804,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32785,11 +32837,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32822,11 +32870,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32859,11 +32903,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32896,11 +32936,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32933,11 +32969,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32970,11 +33002,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33007,11 +33035,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33044,11 +33068,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33081,11 +33101,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33118,11 +33134,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -33155,11 +33167,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33192,11 +33200,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33229,11 +33233,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33266,11 +33266,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33303,11 +33299,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33340,11 +33332,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33377,11 +33365,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33414,11 +33398,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33451,11 +33431,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33488,11 +33464,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33525,11 +33497,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33562,11 +33530,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33599,11 +33563,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33636,11 +33596,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33673,11 +33629,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33710,11 +33662,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33747,11 +33695,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33784,11 +33728,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33821,11 +33761,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33858,11 +33794,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33895,11 +33827,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33932,11 +33860,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33969,11 +33893,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -34006,11 +33926,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -34043,11 +33959,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -34080,11 +33992,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -34117,11 +34025,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -34154,11 +34058,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -34191,11 +34091,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34228,11 +34124,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -34265,11 +34157,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -34302,11 +34190,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34339,11 +34223,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34376,11 +34256,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34413,11 +34289,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34450,11 +34322,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34487,11 +34355,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34524,11 +34388,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34561,11 +34421,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34598,11 +34454,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34635,11 +34487,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34672,11 +34520,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34709,11 +34553,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34746,11 +34586,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34783,11 +34619,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34820,11 +34652,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34857,11 +34685,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34894,11 +34718,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34931,11 +34751,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34968,11 +34784,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -35005,11 +34817,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -35042,11 +34850,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -35079,11 +34883,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -35116,11 +34916,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -35153,11 +34949,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -35190,11 +34982,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -35227,11 +35015,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -35264,11 +35048,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -35301,11 +35081,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -35338,11 +35114,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -35375,11 +35147,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -35412,11 +35180,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -35449,11 +35213,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -35486,11 +35246,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -35523,11 +35279,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35560,11 +35312,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35597,11 +35345,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35634,11 +35378,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35671,11 +35411,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35708,11 +35444,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35745,11 +35477,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35782,11 +35510,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35819,11 +35543,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35856,11 +35576,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35893,11 +35609,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35930,11 +35642,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35967,11 +35675,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -36004,11 +35708,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -36041,11 +35741,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -36078,11 +35774,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -36115,11 +35807,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -36152,11 +35840,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -36189,11 +35873,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -36226,11 +35906,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -36263,11 +35939,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -36300,11 +35972,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -36337,11 +36005,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -36374,11 +36038,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -36411,11 +36071,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -36448,11 +36104,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -36485,11 +36137,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -36522,11 +36170,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -36559,11 +36203,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -36596,11 +36236,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -36633,11 +36269,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -36670,11 +36302,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -36707,11 +36335,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -36744,11 +36368,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -36781,11 +36401,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -36818,11 +36434,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -36855,11 +36467,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36892,11 +36500,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36929,11 +36533,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36966,11 +36566,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -37003,11 +36599,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -37040,11 +36632,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -37077,11 +36665,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -37114,11 +36698,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -37151,11 +36731,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -37188,11 +36764,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -37225,11 +36797,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -37262,11 +36830,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -37299,11 +36863,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -37336,11 +36896,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -37373,11 +36929,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -37410,11 +36962,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -37447,11 +36995,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -37484,11 +37028,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -37521,11 +37061,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -37558,11 +37094,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -37595,11 +37127,7 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -37632,11 +37160,7 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -37669,11 +37193,7 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -37706,11 +37226,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -37743,11 +37259,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -37780,11 +37292,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37817,11 +37325,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37854,11 +37358,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37891,11 +37391,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -37928,11 +37424,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -37965,11 +37457,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -38002,11 +37490,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -38039,11 +37523,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -38076,11 +37556,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -38113,11 +37589,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -38150,11 +37622,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -38187,11 +37655,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -38224,11 +37688,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -38261,11 +37721,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -38298,11 +37754,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -38335,11 +37787,7 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -38372,11 +37820,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -38409,11 +37853,7 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -38446,11 +37886,7 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -38483,11 +37919,7 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -38520,11 +37952,7 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -38557,11 +37985,7 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -38594,11 +38018,7 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -38631,11 +38051,7 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -38668,11 +38084,7 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -38705,11 +38117,7 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1100" t="inlineStr"/>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -38742,11 +38150,7 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1101" t="inlineStr"/>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -38779,11 +38183,7 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1102" t="inlineStr"/>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -38816,11 +38216,7 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1103" t="inlineStr"/>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -38853,11 +38249,7 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1104" t="inlineStr"/>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -38890,11 +38282,7 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1105" t="inlineStr"/>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -38927,11 +38315,7 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1106" t="inlineStr"/>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -38964,11 +38348,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -39001,11 +38381,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1108" t="inlineStr"/>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -39038,11 +38414,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1109" t="inlineStr"/>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -39075,11 +38447,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1110" t="inlineStr"/>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -39112,11 +38480,7 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1111" t="inlineStr"/>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -39149,11 +38513,7 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -39186,11 +38546,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -39223,11 +38579,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -39260,11 +38612,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -39297,11 +38645,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -39334,11 +38678,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -39371,11 +38711,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -39408,11 +38744,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -39445,11 +38777,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -39482,11 +38810,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1121" t="inlineStr"/>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -39519,11 +38843,7 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -39556,11 +38876,7 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1123" t="inlineStr"/>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -39593,11 +38909,7 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1124" t="inlineStr"/>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -39630,11 +38942,7 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -39667,11 +38975,7 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1126" t="inlineStr"/>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -39704,11 +39008,7 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1127" t="inlineStr"/>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -39741,11 +39041,7 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1128" t="inlineStr"/>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -39778,11 +39074,7 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1129" t="inlineStr"/>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -39815,11 +39107,7 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1130" t="inlineStr"/>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -39852,11 +39140,7 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1131" t="inlineStr"/>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -39889,11 +39173,7 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1132" t="inlineStr"/>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -39926,11 +39206,7 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1133" t="inlineStr"/>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -39963,11 +39239,7 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1134" t="inlineStr"/>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -40000,11 +39272,7 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1135" t="inlineStr"/>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -40037,11 +39305,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1136" t="inlineStr"/>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -40074,11 +39338,7 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1137" t="inlineStr"/>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -40111,11 +39371,7 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1138" t="inlineStr"/>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -40148,11 +39404,7 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1139" t="inlineStr"/>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -40185,11 +39437,7 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1140" t="inlineStr"/>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -40222,11 +39470,7 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1141" t="inlineStr"/>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -40259,11 +39503,7 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1142" t="inlineStr"/>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -40296,11 +39536,7 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1143" t="inlineStr"/>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -40333,11 +39569,7 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1144" t="inlineStr"/>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -40370,11 +39602,7 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1145" t="inlineStr"/>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -40407,11 +39635,7 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1146" t="inlineStr"/>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -40444,11 +39668,7 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1147" t="inlineStr"/>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -40481,11 +39701,7 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1148" t="inlineStr"/>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -40518,11 +39734,7 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1149" t="inlineStr"/>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -40555,11 +39767,7 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1150" t="inlineStr"/>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -40592,11 +39800,7 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1151" t="inlineStr"/>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -40629,11 +39833,7 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1152" t="inlineStr"/>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -40666,11 +39866,7 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1153" t="inlineStr"/>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -40703,11 +39899,7 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1154" t="inlineStr"/>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -40740,11 +39932,7 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1155" t="inlineStr"/>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -40777,11 +39965,7 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1156" t="inlineStr"/>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -40814,11 +39998,7 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1157" t="inlineStr"/>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -40851,11 +40031,7 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1158" t="inlineStr"/>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -40888,11 +40064,7 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1159" t="inlineStr"/>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -40925,11 +40097,7 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1160" t="inlineStr"/>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -40962,11 +40130,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1161" t="inlineStr"/>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -40999,11 +40163,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1162" t="inlineStr"/>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -41036,11 +40196,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1163" t="inlineStr"/>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -41073,11 +40229,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -41110,11 +40262,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -41147,11 +40295,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -41184,11 +40328,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -41221,11 +40361,7 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1168" t="inlineStr"/>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -41258,11 +40394,7 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1169" t="inlineStr"/>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -41295,11 +40427,7 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1170" t="inlineStr"/>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -41332,11 +40460,7 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1171" t="inlineStr"/>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -41369,11 +40493,7 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1172" t="inlineStr"/>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -41406,11 +40526,7 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1173" t="inlineStr"/>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -41443,11 +40559,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1174" t="inlineStr"/>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -41480,11 +40592,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1175" t="inlineStr"/>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -41517,11 +40625,7 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1176" t="inlineStr"/>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -41554,11 +40658,7 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1177" t="inlineStr"/>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
